--- a/LH_REQUIREMENTS/Learninghub-SIQ.xlsx
+++ b/LH_REQUIREMENTS/Learninghub-SIQ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mego\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0000DC37-08BE-4156-AA0B-453E24AFCAAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9CA30A3-FF23-4DDF-9469-7A6684EE1781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
   <si>
     <t>ID</t>
   </si>
@@ -37,124 +37,127 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>SIQ_01</t>
-  </si>
-  <si>
-    <t>Reqistration</t>
-  </si>
-  <si>
-    <t>should the password be at least 8 chars?</t>
-  </si>
-  <si>
-    <t>SIQ_02</t>
-  </si>
-  <si>
-    <t>Should the password be a combination between numbers, chars  and special chars?</t>
-  </si>
-  <si>
-    <t>SIQ_03</t>
-  </si>
-  <si>
     <t>should there be a message showing the password requirements that were mentioned before to the user?</t>
   </si>
   <si>
-    <t>SIQ_04</t>
-  </si>
-  <si>
     <t>Should there be an indicator for the already used username?</t>
   </si>
   <si>
-    <t>SIQ_05</t>
-  </si>
-  <si>
     <t>Should there be an indicator for the already used email?</t>
   </si>
   <si>
-    <t>SIQ_06</t>
-  </si>
-  <si>
-    <t>Should the Max number of users on the Website be 50 concurrent users?</t>
-  </si>
-  <si>
-    <t>SIQ_07</t>
-  </si>
-  <si>
     <t>Navigation</t>
   </si>
   <si>
     <t>Should there be a header navigation bar for the website which has tabs named after each section with a dropdown from these tabs including the subsections?</t>
   </si>
   <si>
-    <t>SIQ_08</t>
-  </si>
-  <si>
-    <t>should there be 5 categories?</t>
-  </si>
-  <si>
-    <t>SIQ_09</t>
-  </si>
-  <si>
     <t>Publish and upload</t>
   </si>
   <si>
-    <t>Should the maximum size for videos not exceed 50mb?</t>
-  </si>
-  <si>
-    <t>SIQ_10</t>
-  </si>
-  <si>
-    <t>Should the maximum size for recordings not exceed 20mb?</t>
-  </si>
-  <si>
-    <t>SIQ_11</t>
-  </si>
-  <si>
-    <t>Should the maximum numbers of chars in the article be 1000 words?</t>
-  </si>
-  <si>
-    <t>SIQ_12</t>
-  </si>
-  <si>
-    <t>Should the video format be mp4 only?</t>
-  </si>
-  <si>
-    <t>SIQ_13</t>
-  </si>
-  <si>
-    <t>Should the audio format be Mp3 only?</t>
-  </si>
-  <si>
-    <t>SIQ_14</t>
-  </si>
-  <si>
     <t>Notifications</t>
   </si>
   <si>
-    <t>A notification system should be available via website?</t>
-  </si>
-  <si>
-    <t>SIQ_15</t>
-  </si>
-  <si>
     <t>ID Constrain</t>
   </si>
   <si>
     <t>Should the id be a randomized number?</t>
   </si>
   <si>
-    <t>SIQ_16</t>
-  </si>
-  <si>
     <t>ADMIN Constrain</t>
   </si>
   <si>
-    <t>Should the admin Features be remove articles and videos and audio?</t>
-  </si>
-  <si>
-    <t>SIQ_17</t>
-  </si>
-  <si>
     <t>Should the admin Features include deleting a user?</t>
+  </si>
+  <si>
+    <t>Should the Max number of users on the Website be 50 users?</t>
+  </si>
+  <si>
+    <t>Number of users</t>
+  </si>
+  <si>
+    <t>LH-SIQ-001</t>
+  </si>
+  <si>
+    <t>LH-SIQ-002</t>
+  </si>
+  <si>
+    <t>LH-SIQ-003</t>
+  </si>
+  <si>
+    <t>LH-SIQ-004</t>
+  </si>
+  <si>
+    <t>LH-SIQ-005</t>
+  </si>
+  <si>
+    <t>LH-SIQ-006</t>
+  </si>
+  <si>
+    <t>LH-SIQ-007</t>
+  </si>
+  <si>
+    <t>LH-SIQ-008</t>
+  </si>
+  <si>
+    <t>LH-SIQ-009</t>
+  </si>
+  <si>
+    <t>LH-SIQ-010</t>
+  </si>
+  <si>
+    <t>LH-SIQ-011</t>
+  </si>
+  <si>
+    <t>LH-SIQ-012</t>
+  </si>
+  <si>
+    <t>LH-SIQ-013</t>
+  </si>
+  <si>
+    <t>LH-SIQ-014</t>
+  </si>
+  <si>
+    <t>LH-SIQ-015</t>
+  </si>
+  <si>
+    <t>LH-SIQ-016</t>
+  </si>
+  <si>
+    <t>LH-SIQ-017</t>
+  </si>
+  <si>
+    <t>Registration</t>
+  </si>
+  <si>
+    <t>Should the website include exactly 5 content categories?</t>
+  </si>
+  <si>
+    <t>should the password be at least 8 characters?</t>
+  </si>
+  <si>
+    <t>Should the password be a combination of numbers, characters  and special characters?</t>
+  </si>
+  <si>
+    <t>Should the maximum numbers of words in an article be 1000 words?</t>
+  </si>
+  <si>
+    <t>Should the maximum allowed audio recording size be 20 MB?</t>
+  </si>
+  <si>
+    <t>Should the video format be MP4 only?</t>
+  </si>
+  <si>
+    <t>Should the audio format be MP3 only?</t>
+  </si>
+  <si>
+    <t>Should the maximum allowed video size be 50 MB?</t>
+  </si>
+  <si>
+    <t>Should a notification system be available through the website?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Should the admin features include removing articles, videos, and audio files?</t>
   </si>
 </sst>
 </file>
@@ -200,7 +203,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -250,21 +253,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF284E3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF284E3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
       </bottom>
       <diagonal/>
     </border>
@@ -345,21 +333,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF284E3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF284E3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
@@ -392,7 +365,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -406,62 +379,56 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -513,7 +480,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E19">
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Feature"/>
@@ -726,11 +693,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="59" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -761,234 +728,237 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="13"/>
+    </row>
+    <row r="4" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="D4" s="14"/>
+      <c r="E4" s="8"/>
+      <c r="I4" s="15"/>
+    </row>
+    <row r="5" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D5" s="16"/>
+      <c r="E5" s="13"/>
+    </row>
+    <row r="6" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9"/>
-    </row>
-    <row r="3" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="D6" s="14"/>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="13"/>
+    </row>
+    <row r="8" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="12" t="s">
+      <c r="C8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14"/>
-    </row>
-    <row r="4" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="D8" s="14"/>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="13"/>
+    </row>
+    <row r="10" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="C10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="13"/>
+    </row>
+    <row r="12" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="E13" s="13"/>
+    </row>
+    <row r="14" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="9"/>
-      <c r="I4" s="16"/>
-    </row>
-    <row r="5" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="C15" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="16"/>
+      <c r="E15" s="13"/>
+    </row>
+    <row r="16" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="12" t="s">
+      <c r="C16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="14"/>
-    </row>
-    <row r="6" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="D16" s="14"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="7" t="s">
+      <c r="C17" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="16"/>
+      <c r="E17" s="13"/>
+    </row>
+    <row r="18" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="14"/>
-    </row>
-    <row r="8" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="9"/>
-    </row>
-    <row r="9" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="14"/>
-    </row>
-    <row r="10" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="14"/>
-    </row>
-    <row r="12" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="9"/>
-    </row>
-    <row r="13" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="14"/>
-    </row>
-    <row r="14" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="9"/>
-    </row>
-    <row r="15" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="14"/>
-    </row>
-    <row r="16" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="14"/>
-    </row>
-    <row r="18" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="23"/>
-      <c r="E18" s="24"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="22"/>
+    </row>
+    <row r="19" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Yes or NO" sqref="D3:D18 D2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Yes or NO" sqref="D2:D19" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showDropDown="1" sqref="B2:C18" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation allowBlank="1" showDropDown="1" sqref="B2:C19" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
